--- a/file/personal/roleImportant/角色要事记录表_2024.xlsx
+++ b/file/personal/roleImportant/角色要事记录表_2024.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16440" activeTab="2"/>
+    <workbookView windowHeight="17040" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="角色目录" sheetId="2" r:id="rId1"/>
     <sheet name="待办任务" sheetId="3" r:id="rId2"/>
     <sheet name="一月" sheetId="10" r:id="rId3"/>
+    <sheet name="二月" sheetId="11" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">待办任务!$A$1:$D$25</definedName>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="91">
   <si>
     <t>角色</t>
   </si>
@@ -332,22 +333,55 @@
     <t>上海考编报名以及学习调研</t>
   </si>
   <si>
+    <t>已完成</t>
+  </si>
+  <si>
     <t>制定学习计划并开始学习</t>
   </si>
   <si>
+    <t>各种app和资料准备好</t>
+  </si>
+  <si>
     <t>第二周</t>
   </si>
   <si>
     <t>能否通过ai来写游戏？</t>
   </si>
   <si>
+    <t>职测-数量关系学习-完成50%</t>
+  </si>
+  <si>
+    <t>综应-系统学习</t>
+  </si>
+  <si>
     <t>第三周</t>
   </si>
   <si>
+    <t>职测-数量关系学习-完成100%</t>
+  </si>
+  <si>
     <t>第四周</t>
   </si>
   <si>
     <t>作息规律反思</t>
+  </si>
+  <si>
+    <t>职测-资料分析学习-完成50%</t>
+  </si>
+  <si>
+    <t>职测-资料分析学习-完成100%</t>
+  </si>
+  <si>
+    <t>职测-言语学习-完成50%</t>
+  </si>
+  <si>
+    <t>职测-言语学习-完成100%</t>
+  </si>
+  <si>
+    <t>职测-考试刷题</t>
+  </si>
+  <si>
+    <t>综应-考试刷题</t>
   </si>
 </sst>
 </file>
@@ -357,8 +391,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -395,6 +429,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
@@ -403,29 +444,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -455,25 +473,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -488,6 +505,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
@@ -495,15 +520,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -517,7 +536,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -532,7 +559,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -544,7 +578,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -565,6 +599,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="16"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -607,187 +647,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -876,6 +916,21 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="18"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="17"/>
       </left>
       <right style="thin">
@@ -916,21 +971,6 @@
       </top>
       <bottom style="thin">
         <color indexed="17"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="18"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1021,25 +1061,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1059,17 +1090,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1089,13 +1125,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1104,152 +1144,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1268,79 +1308,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1349,17 +1389,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2595,208 +2632,208 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" ht="14" customHeight="1" spans="1:5">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" ht="14" customHeight="1" spans="1:5">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
     </row>
     <row r="4" ht="14" customHeight="1" spans="1:5">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
     </row>
     <row r="5" ht="14" customHeight="1" spans="1:5">
-      <c r="A5" s="41"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
     </row>
     <row r="6" ht="14" customHeight="1" spans="1:5">
-      <c r="A6" s="41"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
     </row>
     <row r="7" ht="14" customHeight="1" spans="1:5">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
     </row>
     <row r="8" ht="14" customHeight="1" spans="1:5">
-      <c r="A8" s="41"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
     </row>
     <row r="9" ht="14" customHeight="1" spans="1:5">
-      <c r="A9" s="41"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
     </row>
     <row r="10" ht="14" customHeight="1" spans="1:5">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
     </row>
     <row r="11" ht="14" customHeight="1" spans="1:5">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
     </row>
     <row r="12" ht="14" customHeight="1" spans="1:5">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
     </row>
     <row r="13" ht="14" customHeight="1" spans="1:5">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
     </row>
     <row r="14" ht="14" customHeight="1" spans="1:5">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
     </row>
     <row r="15" ht="14" customHeight="1" spans="1:5">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
     </row>
     <row r="16" ht="14" customHeight="1" spans="1:5">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
     </row>
     <row r="17" ht="14" customHeight="1" spans="1:5">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
     </row>
     <row r="18" ht="14" customHeight="1" spans="1:5">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
     </row>
     <row r="19" ht="14" customHeight="1" spans="1:5">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
     </row>
     <row r="20" ht="14" customHeight="1" spans="1:5">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
     </row>
     <row r="21" ht="14" customHeight="1" spans="1:5">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
     </row>
     <row r="22" ht="14" customHeight="1" spans="1:5">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
     </row>
     <row r="23" ht="14" customHeight="1" spans="1:5">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
     </row>
     <row r="26" customHeight="1" spans="1:1">
-      <c r="A26" s="42" t="s">
+      <c r="A26" s="41" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:1">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="19" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2806,12 +2843,12 @@
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:1">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="23" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:1">
-      <c r="A30" s="28" t="s">
+      <c r="A30" s="29" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2846,180 +2883,180 @@
   <sheetFormatPr defaultColWidth="9.64423076923077" defaultRowHeight="13" customHeight="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="16.3557692307692" style="1" customWidth="1"/>
-    <col min="2" max="2" width="99.1153846153846" style="12" customWidth="1"/>
-    <col min="3" max="3" width="14.1057692307692" style="12" customWidth="1"/>
+    <col min="2" max="2" width="99.1153846153846" style="13" customWidth="1"/>
+    <col min="3" max="3" width="14.1057692307692" style="13" customWidth="1"/>
     <col min="4" max="16384" width="16.3557692307692" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1" spans="1:4">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="16" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" ht="13.35" hidden="1" customHeight="1" spans="1:4">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="20" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" ht="13.35" hidden="1" customHeight="1" spans="1:4">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="18" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="20" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" ht="13.35" hidden="1" customHeight="1" spans="1:4">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="18" t="s">
+      <c r="B4" s="22"/>
+      <c r="C4" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="20" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" ht="13.35" hidden="1" customHeight="1" spans="1:4">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="20" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" ht="13.35" customHeight="1" spans="1:4">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="20" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="26" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="23"/>
-      <c r="B8" s="24" t="s">
+      <c r="A8" s="24"/>
+      <c r="B8" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="26" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="23"/>
-      <c r="B9" s="26" t="s">
+      <c r="A9" s="24"/>
+      <c r="B9" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="26" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="26" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="26" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="12" hidden="1" customHeight="1" spans="1:4">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C12" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="26" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" hidden="1" customHeight="1" spans="1:4">
-      <c r="A13" s="29"/>
-      <c r="B13" s="24" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="25" t="s">
         <v>48</v>
       </c>
       <c r="C13" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="26" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3030,7 +3067,7 @@
       <c r="B14" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="23" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="33" t="s">
@@ -3038,10 +3075,10 @@
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="25" t="s">
         <v>52</v>
       </c>
       <c r="C15" s="34" t="s">
@@ -3052,8 +3089,8 @@
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:4">
-      <c r="A16" s="23"/>
-      <c r="B16" s="24" t="s">
+      <c r="A16" s="24"/>
+      <c r="B16" s="25" t="s">
         <v>53</v>
       </c>
       <c r="C16" s="34"/>
@@ -3062,8 +3099,8 @@
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:4">
-      <c r="A17" s="23"/>
-      <c r="B17" s="24" t="s">
+      <c r="A17" s="24"/>
+      <c r="B17" s="25" t="s">
         <v>54</v>
       </c>
       <c r="C17" s="34"/>
@@ -3072,8 +3109,8 @@
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:4">
-      <c r="A18" s="23"/>
-      <c r="B18" s="24" t="s">
+      <c r="A18" s="24"/>
+      <c r="B18" s="25" t="s">
         <v>55</v>
       </c>
       <c r="C18" s="34"/>
@@ -3082,8 +3119,8 @@
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:4">
-      <c r="A19" s="23"/>
-      <c r="B19" s="24" t="s">
+      <c r="A19" s="24"/>
+      <c r="B19" s="25" t="s">
         <v>56</v>
       </c>
       <c r="C19" s="34"/>
@@ -3092,13 +3129,13 @@
       </c>
     </row>
     <row r="20" hidden="1" customHeight="1" spans="1:4">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="19" t="s">
         <v>20</v>
       </c>
       <c r="D20" s="35" t="s">
@@ -3106,13 +3143,13 @@
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:4">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="23" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="35" t="s">
@@ -3120,13 +3157,13 @@
       </c>
     </row>
     <row r="22" hidden="1" customHeight="1" spans="1:4">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="19" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="35" t="s">
@@ -3134,13 +3171,13 @@
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:4">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="23" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="35" t="s">
@@ -3148,13 +3185,13 @@
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:4">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="23" t="s">
         <v>22</v>
       </c>
       <c r="D24" s="35" t="s">
@@ -3162,16 +3199,16 @@
       </c>
     </row>
     <row r="25" hidden="1" customHeight="1" spans="1:4">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="20" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3209,19 +3246,19 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B6" sqref="B6"/>
+      <selection pane="topRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.64423076923077" defaultRowHeight="13" customHeight="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="16.3557692307692" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.4903846153846" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.9807692307692" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.7307692307692" style="1" customWidth="1"/>
     <col min="4" max="16384" width="16.3557692307692" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3258,182 +3295,415 @@
       <c r="B2" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="6"/>
+      <c r="C2" s="11"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="11"/>
+      <c r="G2" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" ht="13.35" customHeight="1" spans="1:8">
-      <c r="A3" s="7"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="11"/>
+      <c r="G3" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" ht="13.35" customHeight="1" spans="1:8">
-      <c r="A4" s="7"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" ht="13.65" customHeight="1" spans="1:8">
+      <c r="A5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" ht="13.35" customHeight="1" spans="1:8">
+      <c r="A6" s="7"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" ht="13.65" customHeight="1" spans="1:8">
+      <c r="A7" s="8"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" ht="13.65" customHeight="1" spans="1:8">
+      <c r="A8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" ht="13.65" customHeight="1" spans="1:8">
+      <c r="A9" s="7"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" ht="14" customHeight="1" spans="1:8">
+      <c r="A10" s="8"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" ht="13.65" customHeight="1" spans="1:8">
+      <c r="A11" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" ht="13.35" customHeight="1" spans="1:8">
+      <c r="A12" s="7"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" ht="13.65" customHeight="1" spans="1:8">
+      <c r="A13" s="9"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" ht="13.65" customHeight="1" spans="1:8">
+      <c r="A14" s="9"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" ht="13.65" customHeight="1" spans="1:8">
+      <c r="A15" s="8"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A11:A15"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G3">
+      <formula1>"未进行,进行中,已暂停,已完成"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="C2" sqref="C2:C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.64423076923077" defaultRowHeight="13" customHeight="1" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="16.3557692307692" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.4903846153846" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.7307692307692" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="16.3557692307692" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14" customHeight="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" ht="13.65" customHeight="1" spans="1:8">
+      <c r="A2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" ht="13.35" customHeight="1" spans="1:8">
+      <c r="A3" s="6"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" ht="13.65" customHeight="1" spans="1:8">
+      <c r="A4" s="6"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="11"/>
-    </row>
-    <row r="5" ht="13.35" customHeight="1" spans="1:8">
-      <c r="A5" s="7"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" ht="13.65" customHeight="1" spans="1:8">
+      <c r="A5" s="4" t="s">
+        <v>77</v>
+      </c>
       <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="11"/>
-    </row>
-    <row r="6" ht="13.65" customHeight="1" spans="1:8">
-      <c r="A6" s="8"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" ht="13.35" customHeight="1" spans="1:8">
+      <c r="A6" s="7"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="11"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" ht="13.65" customHeight="1" spans="1:8">
-      <c r="A7" s="7"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="11"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" ht="13.65" customHeight="1" spans="1:8">
-      <c r="A8" s="7"/>
+      <c r="A8" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>88</v>
+      </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="11"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" ht="13.65" customHeight="1" spans="1:8">
-      <c r="A9" s="4" t="s">
-        <v>75</v>
-      </c>
+      <c r="A9" s="7"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="11"/>
-    </row>
-    <row r="10" ht="13.35" customHeight="1" spans="1:8">
-      <c r="A10" s="9"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" ht="14" customHeight="1" spans="1:8">
+      <c r="A10" s="8"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="11"/>
+      <c r="H10" s="5"/>
     </row>
     <row r="11" ht="13.65" customHeight="1" spans="1:8">
-      <c r="A11" s="10"/>
+      <c r="A11" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="11"/>
-    </row>
-    <row r="12" ht="13.65" customHeight="1" spans="1:8">
-      <c r="A12" s="4" t="s">
-        <v>77</v>
-      </c>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" ht="13.35" customHeight="1" spans="1:8">
+      <c r="A12" s="7"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="11"/>
+      <c r="H12" s="5"/>
     </row>
     <row r="13" ht="13.65" customHeight="1" spans="1:8">
       <c r="A13" s="9"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="11"/>
-    </row>
-    <row r="14" ht="14" customHeight="1" spans="1:8">
-      <c r="A14" s="10"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" ht="13.65" customHeight="1" spans="1:8">
+      <c r="A14" s="9"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="11"/>
+      <c r="H14" s="5"/>
     </row>
     <row r="15" ht="13.65" customHeight="1" spans="1:8">
-      <c r="A15" s="4" t="s">
-        <v>78</v>
-      </c>
+      <c r="A15" s="8"/>
       <c r="B15" s="5"/>
-      <c r="C15" s="5" t="s">
-        <v>65</v>
-      </c>
+      <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="11"/>
-    </row>
-    <row r="16" ht="13.35" customHeight="1" spans="1:8">
-      <c r="A16" s="9"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="11"/>
-    </row>
-    <row r="17" ht="13.65" customHeight="1" spans="1:8">
-      <c r="A17" s="10"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="11"/>
+      <c r="H15" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A11:A15"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>

--- a/file/personal/roleImportant/角色要事记录表_2024.xlsx
+++ b/file/personal/roleImportant/角色要事记录表_2024.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17040" activeTab="2"/>
+    <workbookView windowHeight="15760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="角色目录" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="91">
   <si>
     <t>角色</t>
   </si>
@@ -435,18 +435,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -467,9 +467,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -480,17 +488,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -505,18 +527,33 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -535,43 +572,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9.75"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
@@ -605,6 +605,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="16"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -629,18 +641,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -659,13 +659,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,49 +791,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -731,60 +821,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -792,42 +828,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1055,7 +1055,57 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1075,41 +1125,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1124,162 +1139,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="41" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1317,28 +1317,28 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1347,10 +1347,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1359,25 +1359,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1389,13 +1389,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3035,7 +3035,7 @@
       </c>
     </row>
     <row r="12" hidden="1" customHeight="1" spans="1:4">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="9" t="s">
         <v>46</v>
       </c>
       <c r="B12" s="25" t="s">
@@ -3049,7 +3049,7 @@
       </c>
     </row>
     <row r="13" hidden="1" customHeight="1" spans="1:4">
-      <c r="A13" s="11"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="25" t="s">
         <v>48</v>
       </c>
@@ -3171,7 +3171,7 @@
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:4">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="9" t="s">
         <v>63</v>
       </c>
       <c r="B23" s="25" t="s">
@@ -3185,7 +3185,7 @@
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:4">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="9" t="s">
         <v>65</v>
       </c>
       <c r="B24" s="25" t="s">
@@ -3199,7 +3199,7 @@
       </c>
     </row>
     <row r="25" hidden="1" customHeight="1" spans="1:4">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="9" t="s">
         <v>67</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -3251,7 +3251,7 @@
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C18" sqref="C18"/>
+      <selection pane="topRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.64423076923077" defaultRowHeight="13" customHeight="1" outlineLevelCol="7"/>
@@ -3295,11 +3295,11 @@
       <c r="B2" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="11"/>
+      <c r="C2" s="9"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="10" t="s">
         <v>74</v>
       </c>
       <c r="H2" s="5"/>
@@ -3312,7 +3312,7 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="10" t="s">
         <v>74</v>
       </c>
       <c r="H3" s="5"/>
@@ -3326,7 +3326,9 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="G4" s="10" t="s">
+        <v>74</v>
+      </c>
       <c r="H4" s="5"/>
     </row>
     <row r="5" ht="13.65" customHeight="1" spans="1:8">
@@ -3340,7 +3342,9 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="G5" s="10" t="s">
+        <v>74</v>
+      </c>
       <c r="H5" s="5"/>
     </row>
     <row r="6" ht="13.35" customHeight="1" spans="1:8">
@@ -3352,7 +3356,9 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="G6" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="H6" s="5"/>
     </row>
     <row r="7" ht="13.65" customHeight="1" spans="1:8">
@@ -3364,7 +3370,9 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="G7" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="H7" s="5"/>
     </row>
     <row r="8" ht="13.65" customHeight="1" spans="1:8">
@@ -3430,7 +3438,7 @@
       <c r="H12" s="5"/>
     </row>
     <row r="13" ht="13.65" customHeight="1" spans="1:8">
-      <c r="A13" s="9"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
         <v>85</v>
@@ -3442,7 +3450,7 @@
       <c r="H13" s="5"/>
     </row>
     <row r="14" ht="13.65" customHeight="1" spans="1:8">
-      <c r="A14" s="9"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5" t="s">
         <v>80</v>
@@ -3471,7 +3479,7 @@
     <mergeCell ref="A11:A15"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G3 G4 G5">
       <formula1>"未进行,进行中,已暂停,已完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3541,7 +3549,7 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="10"/>
+      <c r="G2" s="5"/>
       <c r="H2" s="5"/>
     </row>
     <row r="3" ht="13.35" customHeight="1" spans="1:8">
@@ -3553,7 +3561,7 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="10"/>
+      <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
     <row r="4" ht="13.65" customHeight="1" spans="1:8">
@@ -3563,7 +3571,7 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="10"/>
+      <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
     <row r="5" ht="13.65" customHeight="1" spans="1:8">
@@ -3665,7 +3673,7 @@
       <c r="H12" s="5"/>
     </row>
     <row r="13" ht="13.65" customHeight="1" spans="1:8">
-      <c r="A13" s="9"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
         <v>89</v>
@@ -3677,7 +3685,7 @@
       <c r="H13" s="5"/>
     </row>
     <row r="14" ht="13.65" customHeight="1" spans="1:8">
-      <c r="A14" s="9"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5" t="s">
         <v>90</v>
